--- a/Testdata/TC_98.xlsx
+++ b/Testdata/TC_98.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>MzoAAB+LCAAAAAAAAAPtW91v29YV/1cIPW1A5UtK/pC9GxayZHtCZTuwlCbuS0CR1zYXitT4YVtv2UMRIEsGDEsDtNu6pcCwosCaPHRDlhTb/1JETvq0f2HnfpC8pKhYcrLC6RQEie75uPfcc88958dDCb9/2neUY+IHtudeKWkLakkhrulZtnt4pRSFB2VtufS+jjdOTeJcNXyjT0IQVkDLDdZOA/tK6SgMB2sInZycLJxUFzz/EFVUVUM3ttsd84j0jbLtBqHhmqSUaFnna5V03LD62yQ0LCM0uOaVUqvTWmgQ22wCbdtwjUPiL6xHge2SINhwQzu0SUA1fWKEpNHc/pBvTK8sLC9oGI3RU8n1yHYsLpeR5HQhB8uSrt0nekXVamV1taxWu+rymra8ptYWVleWPooVE0HcNoKwQ/xj22SETmj0B0xdXVWr6rK2rNYwKhSCuVIH6HjXsfbIsR0Qq0EcJ5jJI0gcYN0MYdezOVPFSNIVE13chC3fGBx17dAhs5mxt72u9N33lPYHe/C/sCmdTMebnk9M8OOFTNshJ7u+cG930AZu98j2w2HTGM4817WA+LsD6qzZVHXc9Nyw7hA/vDaAMycWhAQw9NCPCEYTmKlS0w5M+Gy7EbH0A8MJZKUME1/3/FvBwDDJDtxnROc4cR3PsCDwQjsIbTNddIyBr/reAGaExdc9x9qEWYVwASOZueWCi+my6553K7WuiInZqbLzhTPtG2EsPkbHnSPvZNd1hp2oF5i+3SNWcz2WLuRhejGFdiMKQq8PVqQkzGkSZQh/4CLmybhJTLtvOFcdcGKgV2GWDAHXo9A7sMOG50R9N4htylHxddhRl5wmO0zGeBcO16VO99yWG8tzNxeysgp73kmy5jiDOUEi1wMzPu5xRl64CbT4+MY57EToLjdtB+qEfBYSNRsVnSNCwsKQ4BxMU+ImrTz6+nAn6vfgevXgjh2zVQOMUj6GOIVYB7t0FapJmf3tquoa+wt2JGy84VqT5WImhuWktXQNeDkShj05647h3gLqdTs82qnHeyngYO6BifLjPAw3d+AYQ0ZOvCTTcMs1ncgiPCG03AMWotQ2fqgT2XiM1IY7rmPDHXaHA8jPgb0WwocrJajYa0HoAyYo6aYXuaE/pJkDIyF6nk4Q9Vy2gOFMrXPgk19GAEWGm5FrNjxr+tUs7p1rrh1Ob6EX+TwdTq/CvEczYxQ0Cc0xLOlPrW/OsqfAn0m875K+59rm9N4GJ1PrrQtsJIhv1dQahN+vqeUdqOu87NG7PrWaDzgSCt1My9SDwDNtFqzieliSPppwZZrkwIgcwHAhlNjDJPfmybge3MrLyCR8zXfiDKhThBwARDat/oIJ4IHCwAXT61MCAmR6vYORLE8RkEk23MO24R5GgDGSvJKnJ/mX1seub7gB3U4CKXKpuFgIx3mKQx2dJ6/diAUCT14ecDHKyeEu6Q8833C2wTH2pgg7gZcAimwb4ZEYQW1ziBk7GaWqiVbWstjw88RYkeLboBdepMkckQnRvXAwnsqkNEx3uQ3X0mkYjt3zeVaNS3kRDw4sBYdx/qWbmxEoxmcAD2RQfT8gQ4rS04Ggs5DVYgYPYJpI9c7eYq2ypC4tAbKhY8x2vOUdhwpgYAIYUSkrXeNU+ZnSci372LYiw4GPEHywM+4eUYJm0pR18Gac35kJdbAzS8kKAM44tKF8jAsmnFRB3yeG7wwlQb7FtmeC3NmDf4+e/eHswT9GH/+l/PLL34zuPvrPt5+9ePrVi2fPOJXvkUvjrtFzCLOou16rqdVFCLCEhKlXEcPEVmSGjLa/z6BwMsbiyY4NGhutxlZ7nSWShBir81qC6EPj0IvSYYfvgi3EzhLFIcBF9G6cmMQ4w5Vqk04f4o5JVlrmT1Lkvnj5/K8vn/9torZwWAqytNXVWlmrnIvB4HFYG5NLMFg7k/yp8GJZXSpXKpJwTgbv8cyf+Kll6VUNnri1FVVLkriVRHGRUJ4lZuoahyinx0kNjouSEJDHMZNFfpcEYcLmd0EaiBj9+69fPf4kIyW8KyjZWcA4hl/oYigesKl39rpKZ/faXmND6W50aJykPEmOT/4aYbF6cqEyQeW6cMvfU6CqQxVTSvAoVFK8A4UY5pEyhKsoXcRMsBVR+UIXnDJv5ZbvRQN+IpJCSi2QTNJJoUZBsmE85s+xrJOyCsS5raN/flOkIDbSTJGsaIAkccloOMPhJIkvbu2n/3rx9A5Nbk9+O3r6q8wMYp2kHwBxDrdJHiZhDylPFJocBV/vMGfeUm9KhUUQ6RPUVc92w0DXFtnDkxhhUNXobOx/3OpDrWMTM38BPUfBPzeCjdNQXGx9B6MsAewcGFBmvfShMyHwHJ769fs/fn72+2/OHj55deer0d0vR/cevnz+p1dfP+K37uyTJ2f3vxZZPl8ImC30UZajP4U1RkyF3kaFFm3lu9u/U1wvVABrKBHLSN/d/lSajBrKUEk6M2C5xJCsCWOisjLVUyRTEhsyeokKr/wNWsKqiYQoYt7ANtNFPirTqei9Y4yftLrlKCCKBzDqp7CTrHCqPK2eUOEl9eqKWtEqgsutoVvoGYHk+i3H6wGMiBms85ATyWi9XiGVZetttXfX6+1UhBux61vEp2HIP+AYS9KS0griURxqEgW4gPjMyKHNojGxcVYys5TGkOi6HNQtmv6KexQZCdyIfJ8jIlc08zvRAFBw3JubzGf9Sgn47nCQKkPhdNxqZvkwlrhQCLNsSmB8lpoEi6epVkAbPBzH7lDXpEPgZXqc4A7Rr+dIC1Al8RHNOxu+7/mFySflxGLbAKEho6DU44kMO1MOt630rGJCnPDeFHYjDkJRBjujHM7Nj+OCI9ORhGaRBFBRERxFGfyJ3hhrookYcTIntvRtd+dyqK9Q+HxkmIdzjDI92EMZ+IbGwVxKQhNxGhoDY6gYHk0gj6kkiKWQWBRVCfYoJMYLSNgBcfiBxiEHeluIQrtZBCTUN8IR0+MEJBHQeN3OklCm0KJ8UZUJSKqAqKDe5WgoW7BQXJwqP4LiJNa+zNUJXawe8dC9hGUo7v6sLGe6Px8aTkQUODFiKbZLuzdRACmrqN0zUfRy9HdePbr34ulnoy8+H9398+j2t/Nmzttq5tQWp2vmqMs/TDOnsjxFM4cLzZs582bOZWrmxN9iGW/mxJzXNnPOHj7+/s690cdPRvcfje5/cfb4wRt2dSqTMVjlplQwxsFYpTrv6sy7Ou9UV+fHAJz/T7o6ueRzmeG0NvFl6nmvTC8LcJZfjM5R89tCzUvqlK9AKz/QK9DaNK9Aa3PUPEfNlw01X5JXoNXJYLl6UyoH42B5eQ6W52D53QLL1TlYflfAci75/E/AsvjAv/Uqdug1iUPC2X7Pk75i87a94wvrwtnPqtoKdh1LOHO2r10mbkknkH/URAPlbf2miQdd3fcBYNEfQcz8I6T4y7t7hns4o1V8S0yRfgsWVo/fCtp+EN6ghUl84pT9hLLPkeoNfZHD0Rt8vK8vapwAAkieHWXMjK9wyH9i5jltu2/P+NVYNb7n2UnAl4MBh3Kt2SKGlpgdcgpAU5oBkmPvF1A++HfJZ5mNBy7k1ESf/n4jsA+PwlkNW+kZxCI9tWz2SKW8aKm18ioh1bKmwb+GWamo6hL99YeYHDKITU5mXATFB5b+9FP/LxSjSbkzOgAA</t>
+          <t>+DsAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqVkuKYlSxxtIpKQQoS4Q6djKi7HcHUpbLXfZvUjim/MQGHDtAkUdA0nbtA5QNAjQ2A9p4dpB+18CU3ae+hd6ZmYvs8ulxZXdQEZoGDDn3GbmzJlzvj3exe+dDSzphLie6djXSpUFuSQRW3cM0z68Vgr8frmyVHpPxRtnOrH2NFcbEB+EJdCyvdUzz7xWOvL94SpCp6enC6fVBcc9RIosV9DN7XZHPyIDrWzanq/ZOinFWsbFWiUVN4zBNvE1Q/M1rnmt1Oq0FhrE1JtA29Zs7ZC4C+uBZ9rE8zZs3/RN4lFNl2g+aTS3P+QbU5WFpYUKRhP0RHI9MC2Dy6UkOT2Ug2lJ1xwQVZEVuSzXy4rcrSyvLlZXK8qCUq19FCnGgriteX6HuCemzggdXxsMmbpcV+TK8mK1omCUKwS2EgeoeNcy9smJ6RGjQSzLK+QRFB7gmu7Dros5U8ZI0A0NXX4JW642POqavkWKqm86LtHBUZeae4ec7rqh/7rDNnC7R6brj5raqLCt6x5xd4fUG8VUVdx0bH/NIq5/fQiHSgw4c2CovhsQjKYwE6Wm6enw27QDYqh9zfJEpRQT33DcY2+o6WQHLiyiNk5ty9EMiCzf9HxTTyadYOA91xmCRZh83bGMTbAaCucwYsstG1xMp113nONkdXlMzGKARQOc6UDzI/EJOu4cOae7tjXqBD1Pd80eMZrrkXQuD9ObF2o3As93BrCKhIQ5TaCM4A/ctCwZN4luDjRrzwInemoVrKQIeC3wnb7pNxwrGNhetKYMFd+AHXXJWbzDeIx34XBt6nTHbtmRPHdzLiutsO+cxnNOMpgTBPKap0fHPcnICjeBFh3fJIedCN3lpmlBIRDPQqCmo6JzRIifGxKcg2nO26SlRV0f7QSDHlyvHtyxEzarh1HCxxCnEOuwLlWGclFmf7uyvMr+wjpiNt6wjelyERPDdMJcagV4GRKGPVnrlmYfA/WG6R/trEV7yeFg7oGp8pM8DDd3aGkjRo69JNJwy9atwCA8IbTsPgtRujZ+qFPZeILUhjuuYs0edUdDSMCeuerDj2slKMmrnu9C0S+puhPYvjuimQOjUPQiHS/o2WwCzZpZp++SXweANUabga03HGP22Qzuneu26c++QidweTqcXYV5j2bGwGsSmmNY0p9ZXy+yJ88tJD6wycCxTX12b4OT6eqNS2zEi27VzBqE36+Z5S2o67zs0bs+s5oLQBEKXaFp1jzP0U0WrOH1MAR9NOXKNElfCywAaT6U2MM492bJeM07zsqIJHzdtaIMqFII7AEG1o3Bgg7ggeK8Bd0ZUAIC6Hmjg5EoTxGQTjbsw7ZmHwaAMeK8kqXH+ZfWx66r2R7dTgwpMqk4XwhHeYpDHZUnr92ABQJPXg5wMcrI4S4ZDB1Xs7bBMeZmGHYhXgIosq35R+EIaptF9MjJKFGNtdIrixZ+kRgrUnwb9MKHaTJDZEJ0LxxtJzIJDdNdbsO1tBqaZfZcnlWjUp7HgwNLwGGUf+nmCgLF6AzgiQuq7wdkRGF4MgjpLGQrEYMHME2kame/VlcW5cVFQDZ0jNmOt5wTXwIMTAAjSmWpq51Jv5RatmGemEagWfATgg92xt0TlqBCmqIO3ozyO1vCGqwzTUkLAM44NKF8TArGnERBPSCaa40EQb7FtqOD3PmD/4yf/fH8wT/Hn/y1/PKr347vPvrvd5+/ePr1i2fPOJXvkUvjrtazCFtRd71el6s1CLCYhKlXEcPERqD7jHZwwKBwPMbhoxsbNDZaja32OkskMTFS57UE0afCkRMkww7fBZuInSWKQoCLqN0oMYXjFFeoTSp9SjshaWmRP02R++Ll87+9fP73qdqhwxKQVVlZqZcryoUYDJ50KxNyMQZrp5I/Fa6V5cWyogjCGRm8zzN/7KeWoVYr8go8UcuVOIkbcRTnCWVZoaWudogyepzU4LgoDgFxHDFZ5HeJ58dsfheEQRij//jNq8efpqRC74aUtBVYHMMvdDIUDZjpnf2u1Nm9vt/YkLobHRonCU+Q48ZfIxzOHl+oVFDZNtzyX0hQ1aGKSSV4FCpJTl8imn4kjeAqChcxFWx5VD7RJU1mV7nlOsGQn4igkFBzJON0kquRk2wYj/lzIuskrBxxvtbxv77NUwg30kyQrLq/vS4N7DguGQ2nOJwk8MNb+9m/Xzy9Q5Pbk9+Nn36cshDOE/cDIM7hNonDOOwh5YWFJkPBNzrMmcfyLaGwhET6BLXnmLbvqZUae3gKRxhUK9Qa+xe3BlDrmGHmL6BnKPh9zds488OLre5glCbAOocalFkneeiMCTyHJ3794U9fnP/h2/OHT17d+Xp896vxvYcvn//51TeP+K07//TJ+f1vwiyfLQRsLfRRlqM/iTVGdIneRokWben727+XbMeXAGtIActI39/+TDBGF8pQSWIZsFy8kPQSJkRFZaonCUuJ15DSi1V45W/QElaNJcIi5gxNPZnkozI1Re8dY/ys1S0HHpEcgFE/h52khRPlWfVCFV5S95ZlhbY4ExJtOGg9zRNcv2U5PYAREYN1HjIiKa3XKySybL6t9u76WjsR4YvYdQ3i0jDkP3DLi9BkFF4CBbiA8vTAog2iCbFJFo5+CakLhZ2W/ppBU15+XyIlgRuB63IUZIcd+k4wBOQb9eOm81mPUgC7OxyYivA3GbeaaT6MBS4UvzSbEhifpaOQxVNTy6NNHY5dd6hrkiHwUn1NcEfYhOfoCpAkcRHNNRuu67i5CSfhRGLbAJshi6DE47EMolNyiG0kZxURoiT3plAbceCJUngZZbBtdhwVGZGOBASLBFCK8iAoSmFO9Mb4Ek3FhdM50Urfdkcug/RyhS9Gg1kIxyizAzyUgmxoEsAlJDQVm6EJAIbyIdEU8oRKjFJyiXlRFeONXGI0gYAXEIccaBJmoLeFIiq38sCD/EbYYXZsgAQCmqzVaRJKFVeULaQiAQlVD+XUuAwNpYsUigqS8o4WpHDuq1yR0OVqEA/XK1h6oi7PcmVql+eiXs5V7NjMezNvqzezKM/Ym1F+pN5MfZbeTH3em5n3Zua9mVxUpUxHVcotoRxMwqul6rw3M+/NvFO9mXcVCv9EejOZhHOVAfJSCiB/qFkBkeAciSGZNv1vzMCDMp6HlaeKXg3Y/OrRvRdPPx9/+cX47l/Gt7+bI+e3hZzrtdmQs7z04yBnZWkG5MyF5sh5jpyvEnJuf7A/BTlHnNci5/OHj3+4c2/8yZPx/Ufj+1+eP37whhC6Oh1CV28JBWMSQitzCD2H0O8WhK7OIfRVhtCZhPN/gdDhD/4Wa7hDp0ks4hf+ACfS3nZOLq0LZ19UteXtWkbozGKvUcZuSQyIXyHRQCm6mDXXBfxEP1so/NlQ27SPW8V2ry4pK9WerC9qFaPeq+m9vtKvLdcWl3u1nmL064AgmVH6Vi01MQCQTd9JLTYJoMa0evL+8L5mHxa0xh3MFOk7tuApdiHDxB6P8abpev5NWinDX5xyEFMOOIa+qdY4UL7JxwdqrcIJIIDEyVBq1VF+8fkHa47VNgdmwfdw5SgJpY1AGAyHHGQWPVCoeTvkDCCwYAGyde9XUM/4i+tFrPFbBUk+1o9sdYJeYXMoUt4DPg2sy2lvGIDLLq/NPv8yrTdYAENelzXRsj3z8Mgveq7KykqVLBGlrPR1vVyDQRmqca9saP2Viiz3q8aiQr/UCY1DdTDJacFJaE0xPXjAKK6HMt/vqv8DHxEcn/g7AAA=</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
@@ -424,12 +424,12 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>Govt Revenue</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>Value Added in Industry</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Govt Revenue</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>LKR mn</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>RMB mn</t>
         </is>
       </c>
     </row>
@@ -570,10 +570,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4">
+        <v>310901801</v>
+      </c>
+      <c r="E8" s="4">
         <v>310902601</v>
-      </c>
-      <c r="E8" s="4">
-        <v>310901801</v>
       </c>
     </row>
     <row r="9">
@@ -590,12 +590,12 @@
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>SR4825071</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>SR4825076</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825071</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -632,10 +632,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5">
+        <v>18598</v>
+      </c>
+      <c r="E12" s="5">
         <v>31017</v>
-      </c>
-      <c r="E12" s="5">
-        <v>18598</v>
       </c>
     </row>
     <row r="13">
@@ -649,10 +649,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5">
+        <v>41244</v>
+      </c>
+      <c r="E13" s="5">
         <v>39052</v>
-      </c>
-      <c r="E13" s="5">
-        <v>41244</v>
       </c>
     </row>
     <row r="14">
@@ -705,10 +705,10 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2">
+        <v>4951998.2</v>
+      </c>
+      <c r="E17" s="2">
         <v>201892.7</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4951998.2</v>
       </c>
     </row>
     <row r="18">
@@ -722,10 +722,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2">
+        <v>8870140225312.178</v>
+      </c>
+      <c r="E18" s="2">
         <v>4866077434.233333</v>
-      </c>
-      <c r="E18" s="2">
-        <v>8870140225312.178</v>
       </c>
     </row>
     <row r="19">
@@ -739,10 +739,10 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2">
+        <v>2978278.063799983</v>
+      </c>
+      <c r="E19" s="2">
         <v>69757.27513480821</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2978278.063799983</v>
       </c>
     </row>
     <row r="20">
@@ -752,14 +752,14 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.0156159028969747</v>
+        <v>0.01561590289697475</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2">
+        <v>0.5088159326089573</v>
+      </c>
+      <c r="E20" s="2">
         <v>0.5012749293714148</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.5088159326089575</v>
       </c>
     </row>
     <row r="21">
@@ -769,14 +769,14 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.075751539480832</v>
+        <v>-1.075751539480831</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2">
+        <v>-0.4977563153662574</v>
+      </c>
+      <c r="E21" s="2">
         <v>-0.7795762174608876</v>
-      </c>
-      <c r="E21" s="2">
-        <v>-0.497756315366257</v>
       </c>
     </row>
     <row r="22">
@@ -790,10 +790,10 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="2">
+        <v>0.6014295529832752</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.3455165795237183</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.6014295529832752</v>
       </c>
     </row>
     <row r="23">
@@ -807,10 +807,10 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2">
+        <v>866666</v>
+      </c>
+      <c r="E23" s="2">
         <v>112011</v>
-      </c>
-      <c r="E23" s="2">
-        <v>866666</v>
       </c>
     </row>
     <row r="24">
@@ -824,10 +824,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2">
+        <v>10374001</v>
+      </c>
+      <c r="E24" s="2">
         <v>323560</v>
-      </c>
-      <c r="E24" s="2">
-        <v>10374001</v>
       </c>
     </row>
     <row r="25">
@@ -841,10 +841,10 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2">
+        <v>4504099</v>
+      </c>
+      <c r="E25" s="2">
         <v>189310.5</v>
-      </c>
-      <c r="E25" s="2">
-        <v>4504099</v>
       </c>
     </row>
     <row r="26">
@@ -870,10 +870,10 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>112011</v>
       </c>
-      <c r="E27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="8">
@@ -881,10 +881,10 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <v>129477</v>
       </c>
-      <c r="E28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="8">
@@ -892,10 +892,10 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
         <v>143412</v>
       </c>
-      <c r="E29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="8">
@@ -903,10 +903,10 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <v>167493</v>
       </c>
-      <c r="E30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="8">
@@ -914,10 +914,10 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
         <v>179558</v>
       </c>
-      <c r="E31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="8">
@@ -927,10 +927,10 @@
         <v>767.73</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
         <v>199063</v>
       </c>
-      <c r="E32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="8">
@@ -941,10 +941,10 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3">
+        <v>2171525</v>
+      </c>
+      <c r="E33" s="3">
         <v>221016</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2171525</v>
       </c>
     </row>
     <row r="34">
@@ -956,10 +956,10 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
+        <v>2639647</v>
+      </c>
+      <c r="E34" s="3">
         <v>256572</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2639647</v>
       </c>
     </row>
     <row r="35">
@@ -971,10 +971,10 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
+        <v>3164929</v>
+      </c>
+      <c r="E35" s="3">
         <v>286765</v>
-      </c>
-      <c r="E35" s="3">
-        <v>3164929</v>
       </c>
     </row>
     <row r="36">
@@ -986,10 +986,10 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
+        <v>3876020</v>
+      </c>
+      <c r="E36" s="3">
         <v>323560</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3876020</v>
       </c>
     </row>
     <row r="37">
@@ -1000,10 +1000,10 @@
         <v>1482.71</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
+      <c r="D37" s="3">
         <v>5132178</v>
       </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="8">
@@ -1013,10 +1013,10 @@
         <v>1598.61</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
+      <c r="D38" s="3">
         <v>6133035</v>
       </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="8">
@@ -1026,10 +1026,10 @@
         <v>1639.54</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3">
+      <c r="D39" s="3">
         <v>6851830</v>
       </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="8">
@@ -1039,10 +1039,10 @@
         <v>2026.83</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
+      <c r="D40" s="3">
         <v>8310151</v>
       </c>
+      <c r="E40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="8">
@@ -1052,10 +1052,10 @@
         <v>1667.1</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3">
+      <c r="D41" s="3">
         <v>10374001</v>
       </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="8">
@@ -1063,13 +1063,79 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
+      <c r="D42" s="3">
         <v>866666</v>
       </c>
+      <c r="E42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>3</EndCol>
+          <Name/>
+          <DisplayName/>
+          <SeriesId/>
+          <Code/>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>4</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>5</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>5</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>3</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E575714F-7FEF-4895-807C-410227B741F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_98.xlsx
+++ b/Testdata/TC_98.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>+DsAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqVkuKYlSxxtIpKQQoS4Q6djKi7HcHUpbLXfZvUjim/MQGHDtAkUdA0nbtA5QNAjQ2A9p4dpB+18CU3ae+hd6ZmYvs8ulxZXdQEZoGDDn3GbmzJlzvj3exe+dDSzphLie6djXSpUFuSQRW3cM0z68Vgr8frmyVHpPxRtnOrH2NFcbEB+EJdCyvdUzz7xWOvL94SpCp6enC6fVBcc9RIosV9DN7XZHPyIDrWzanq/ZOinFWsbFWiUVN4zBNvE1Q/M1rnmt1Oq0FhrE1JtA29Zs7ZC4C+uBZ9rE8zZs3/RN4lFNl2g+aTS3P+QbU5WFpYUKRhP0RHI9MC2Dy6UkOT2Ug2lJ1xwQVZEVuSzXy4rcrSyvLlZXK8qCUq19FCnGgriteX6HuCemzggdXxsMmbpcV+TK8mK1omCUKwS2EgeoeNcy9smJ6RGjQSzLK+QRFB7gmu7Dros5U8ZI0A0NXX4JW642POqavkWKqm86LtHBUZeae4ec7rqh/7rDNnC7R6brj5raqLCt6x5xd4fUG8VUVdx0bH/NIq5/fQiHSgw4c2CovhsQjKYwE6Wm6enw27QDYqh9zfJEpRQT33DcY2+o6WQHLiyiNk5ty9EMiCzf9HxTTyadYOA91xmCRZh83bGMTbAaCucwYsstG1xMp113nONkdXlMzGKARQOc6UDzI/EJOu4cOae7tjXqBD1Pd80eMZrrkXQuD9ObF2o3As93BrCKhIQ5TaCM4A/ctCwZN4luDjRrzwInemoVrKQIeC3wnb7pNxwrGNhetKYMFd+AHXXJWbzDeIx34XBt6nTHbtmRPHdzLiutsO+cxnNOMpgTBPKap0fHPcnICjeBFh3fJIedCN3lpmlBIRDPQqCmo6JzRIifGxKcg2nO26SlRV0f7QSDHlyvHtyxEzarh1HCxxCnEOuwLlWGclFmf7uyvMr+wjpiNt6wjelyERPDdMJcagV4GRKGPVnrlmYfA/WG6R/trEV7yeFg7oGp8pM8DDd3aGkjRo69JNJwy9atwCA8IbTsPgtRujZ+qFPZeILUhjuuYs0edUdDSMCeuerDj2slKMmrnu9C0S+puhPYvjuimQOjUPQiHS/o2WwCzZpZp++SXweANUabga03HGP22Qzuneu26c++QidweTqcXYV5j2bGwGsSmmNY0p9ZXy+yJ88tJD6wycCxTX12b4OT6eqNS2zEi27VzBqE36+Z5S2o67zs0bs+s5oLQBEKXaFp1jzP0U0WrOH1MAR9NOXKNElfCywAaT6U2MM492bJeM07zsqIJHzdtaIMqFII7AEG1o3Bgg7ggeK8Bd0ZUAIC6Hmjg5EoTxGQTjbsw7ZmHwaAMeK8kqXH+ZfWx66r2R7dTgwpMqk4XwhHeYpDHZUnr92ABQJPXg5wMcrI4S4ZDB1Xs7bBMeZmGHYhXgIosq35R+EIaptF9MjJKFGNtdIrixZ+kRgrUnwb9MKHaTJDZEJ0LxxtJzIJDdNdbsO1tBqaZfZcnlWjUp7HgwNLwGGUf+nmCgLF6AzgiQuq7wdkRGF4MgjpLGQrEYMHME2kame/VlcW5cVFQDZ0jNmOt5wTXwIMTAAjSmWpq51Jv5RatmGemEagWfATgg92xt0TlqBCmqIO3ozyO1vCGqwzTUkLAM44NKF8TArGnERBPSCaa40EQb7FtqOD3PmD/4yf/fH8wT/Hn/y1/PKr347vPvrvd5+/ePr1i2fPOJXvkUvjrtazCFtRd71el6s1CLCYhKlXEcPERqD7jHZwwKBwPMbhoxsbNDZaja32OkskMTFS57UE0afCkRMkww7fBZuInSWKQoCLqN0oMYXjFFeoTSp9SjshaWmRP02R++Ll87+9fP73qdqhwxKQVVlZqZcryoUYDJ50KxNyMQZrp5I/Fa6V5cWyogjCGRm8zzN/7KeWoVYr8go8UcuVOIkbcRTnCWVZoaWudogyepzU4LgoDgFxHDFZ5HeJ58dsfheEQRij//jNq8efpqRC74aUtBVYHMMvdDIUDZjpnf2u1Nm9vt/YkLobHRonCU+Q48ZfIxzOHl+oVFDZNtzyX0hQ1aGKSSV4FCpJTl8imn4kjeAqChcxFWx5VD7RJU1mV7nlOsGQn4igkFBzJON0kquRk2wYj/lzIuskrBxxvtbxv77NUwg30kyQrLq/vS4N7DguGQ2nOJwk8MNb+9m/Xzy9Q5Pbk9+Nn36cshDOE/cDIM7hNonDOOwh5YWFJkPBNzrMmcfyLaGwhET6BLXnmLbvqZUae3gKRxhUK9Qa+xe3BlDrmGHmL6BnKPh9zds488OLre5glCbAOocalFkneeiMCTyHJ3794U9fnP/h2/OHT17d+Xp896vxvYcvn//51TeP+K07//TJ+f1vwiyfLQRsLfRRlqM/iTVGdIneRokWben727+XbMeXAGtIActI39/+TDBGF8pQSWIZsFy8kPQSJkRFZaonCUuJ15DSi1V45W/QElaNJcIi5gxNPZnkozI1Re8dY/ys1S0HHpEcgFE/h52khRPlWfVCFV5S95ZlhbY4ExJtOGg9zRNcv2U5PYAREYN1HjIiKa3XKySybL6t9u76WjsR4YvYdQ3i0jDkP3DLi9BkFF4CBbiA8vTAog2iCbFJFo5+CakLhZ2W/ppBU15+XyIlgRuB63IUZIcd+k4wBOQb9eOm81mPUgC7OxyYivA3GbeaaT6MBS4UvzSbEhifpaOQxVNTy6NNHY5dd6hrkiHwUn1NcEfYhOfoCpAkcRHNNRuu67i5CSfhRGLbAJshi6DE47EMolNyiG0kZxURoiT3plAbceCJUngZZbBtdhwVGZGOBASLBFCK8iAoSmFO9Mb4Ek3FhdM50Urfdkcug/RyhS9Gg1kIxyizAzyUgmxoEsAlJDQVm6EJAIbyIdEU8oRKjFJyiXlRFeONXGI0gYAXEIccaBJmoLeFIiq38sCD/EbYYXZsgAQCmqzVaRJKFVeULaQiAQlVD+XUuAwNpYsUigqS8o4WpHDuq1yR0OVqEA/XK1h6oi7PcmVql+eiXs5V7NjMezNvqzezKM/Ym1F+pN5MfZbeTH3em5n3Zua9mVxUpUxHVcotoRxMwqul6rw3M+/NvFO9mXcVCv9EejOZhHOVAfJSCiB/qFkBkeAciSGZNv1vzMCDMp6HlaeKXg3Y/OrRvRdPPx9/+cX47l/Gt7+bI+e3hZzrtdmQs7z04yBnZWkG5MyF5sh5jpyvEnJuf7A/BTlHnNci5/OHj3+4c2/8yZPx/Ufj+1+eP37whhC6Oh1CV28JBWMSQitzCD2H0O8WhK7OIfRVhtCZhPN/gdDhD/4Wa7hDp0ks4hf+ACfS3nZOLq0LZ19UteXtWkbozGKvUcZuSQyIXyHRQCm6mDXXBfxEP1so/NlQ27SPW8V2ry4pK9WerC9qFaPeq+m9vtKvLdcWl3u1nmL064AgmVH6Vi01MQCQTd9JLTYJoMa0evL+8L5mHxa0xh3MFOk7tuApdiHDxB6P8abpev5NWinDX5xyEFMOOIa+qdY4UL7JxwdqrcIJIIDEyVBq1VF+8fkHa47VNgdmwfdw5SgJpY1AGAyHHGQWPVCoeTvkDCCwYAGyde9XUM/4i+tFrPFbBUk+1o9sdYJeYXMoUt4DPg2sy2lvGIDLLq/NPv8yrTdYAENelzXRsj3z8Mgveq7KykqVLBGlrPR1vVyDQRmqca9saP2Viiz3q8aiQr/UCY1DdTDJacFJaE0xPXjAKK6HMt/vqv8DHxEcn/g7AAA=</t>
+          <t>MzoAAB+LCAAAAAAAAAPtW91v29YV/1cIPW1A5UtK/pC9GxayZHtCZTuwlCbuS0CR1zYXitT4YVtv2UMRIEsGDEsDtNu6pcCwosCaPHRDlhTb/1JETvq0f2HnfpC8pKhYcrLC6RQEie75uPfcc88958dDCb9/2neUY+IHtudeKWkLakkhrulZtnt4pRSFB2VtufS+jjdOTeJcNXyjT0IQVkDLDdZOA/tK6SgMB2sInZycLJxUFzz/EFVUVUM3ttsd84j0jbLtBqHhmqSUaFnna5V03LD62yQ0LCM0uOaVUqvTWmgQ22wCbdtwjUPiL6xHge2SINhwQzu0SUA1fWKEpNHc/pBvTK8sLC9oGI3RU8n1yHYsLpeR5HQhB8uSrt0nekXVamV1taxWu+rymra8ptYWVleWPooVE0HcNoKwQ/xj22SETmj0B0xdXVWr6rK2rNYwKhSCuVIH6HjXsfbIsR0Qq0EcJ5jJI0gcYN0MYdezOVPFSNIVE13chC3fGBx17dAhs5mxt72u9N33lPYHe/C/sCmdTMebnk9M8OOFTNshJ7u+cG930AZu98j2w2HTGM4817WA+LsD6qzZVHXc9Nyw7hA/vDaAMycWhAQw9NCPCEYTmKlS0w5M+Gy7EbH0A8MJZKUME1/3/FvBwDDJDtxnROc4cR3PsCDwQjsIbTNddIyBr/reAGaExdc9x9qEWYVwASOZueWCi+my6553K7WuiInZqbLzhTPtG2EsPkbHnSPvZNd1hp2oF5i+3SNWcz2WLuRhejGFdiMKQq8PVqQkzGkSZQh/4CLmybhJTLtvOFcdcGKgV2GWDAHXo9A7sMOG50R9N4htylHxddhRl5wmO0zGeBcO16VO99yWG8tzNxeysgp73kmy5jiDOUEi1wMzPu5xRl64CbT4+MY57EToLjdtB+qEfBYSNRsVnSNCwsKQ4BxMU+ImrTz6+nAn6vfgevXgjh2zVQOMUj6GOIVYB7t0FapJmf3tquoa+wt2JGy84VqT5WImhuWktXQNeDkShj05647h3gLqdTs82qnHeyngYO6BifLjPAw3d+AYQ0ZOvCTTcMs1ncgiPCG03AMWotQ2fqgT2XiM1IY7rmPDHXaHA8jPgb0WwocrJajYa0HoAyYo6aYXuaE/pJkDIyF6nk4Q9Vy2gOFMrXPgk19GAEWGm5FrNjxr+tUs7p1rrh1Ob6EX+TwdTq/CvEczYxQ0Cc0xLOlPrW/OsqfAn0m875K+59rm9N4GJ1PrrQtsJIhv1dQahN+vqeUdqOu87NG7PrWaDzgSCt1My9SDwDNtFqzieliSPppwZZrkwIgcwHAhlNjDJPfmybge3MrLyCR8zXfiDKhThBwARDat/oIJ4IHCwAXT61MCAmR6vYORLE8RkEk23MO24R5GgDGSvJKnJ/mX1seub7gB3U4CKXKpuFgIx3mKQx2dJ6/diAUCT14ecDHKyeEu6Q8833C2wTH2pgg7gZcAimwb4ZEYQW1ziBk7GaWqiVbWstjw88RYkeLboBdepMkckQnRvXAwnsqkNEx3uQ3X0mkYjt3zeVaNS3kRDw4sBYdx/qWbmxEoxmcAD2RQfT8gQ4rS04Ggs5DVYgYPYJpI9c7eYq2ypC4tAbKhY8x2vOUdhwpgYAIYUSkrXeNU+ZnSci372LYiw4GPEHywM+4eUYJm0pR18Gac35kJdbAzS8kKAM44tKF8jAsmnFRB3yeG7wwlQb7FtmeC3NmDf4+e/eHswT9GH/+l/PLL34zuPvrPt5+9ePrVi2fPOJXvkUvjrtFzCLOou16rqdVFCLCEhKlXEcPEVmSGjLa/z6BwMsbiyY4NGhutxlZ7nSWShBir81qC6EPj0IvSYYfvgi3EzhLFIcBF9G6cmMQ4w5Vqk04f4o5JVlrmT1Lkvnj5/K8vn/9torZwWAqytNXVWlmrnIvB4HFYG5NLMFg7k/yp8GJZXSpXKpJwTgbv8cyf+Kll6VUNnri1FVVLkriVRHGRUJ4lZuoahyinx0kNjouSEJDHMZNFfpcEYcLmd0EaiBj9+69fPf4kIyW8KyjZWcA4hl/oYigesKl39rpKZ/faXmND6W50aJykPEmOT/4aYbF6cqEyQeW6cMvfU6CqQxVTSvAoVFK8A4UY5pEyhKsoXcRMsBVR+UIXnDJv5ZbvRQN+IpJCSi2QTNJJoUZBsmE85s+xrJOyCsS5raN/flOkIDbSTJGsaIAkccloOMPhJIkvbu2n/3rx9A5Nbk9+O3r6q8wMYp2kHwBxDrdJHiZhDylPFJocBV/vMGfeUm9KhUUQ6RPUVc92w0DXFtnDkxhhUNXobOx/3OpDrWMTM38BPUfBPzeCjdNQXGx9B6MsAewcGFBmvfShMyHwHJ769fs/fn72+2/OHj55deer0d0vR/cevnz+p1dfP+K37uyTJ2f3vxZZPl8ImC30UZajP4U1RkyF3kaFFm3lu9u/U1wvVABrKBHLSN/d/lSajBrKUEk6M2C5xJCsCWOisjLVUyRTEhsyeokKr/wNWsKqiYQoYt7ANtNFPirTqei9Y4yftLrlKCCKBzDqp7CTrHCqPK2eUOEl9eqKWtEqgsutoVvoGYHk+i3H6wGMiBms85ATyWi9XiGVZetttXfX6+1UhBux61vEp2HIP+AYS9KS0griURxqEgW4gPjMyKHNojGxcVYys5TGkOi6HNQtmv6KexQZCdyIfJ8jIlc08zvRAFBw3JubzGf9Sgn47nCQKkPhdNxqZvkwlrhQCLNsSmB8lpoEi6epVkAbPBzH7lDXpEPgZXqc4A7Rr+dIC1Al8RHNOxu+7/mFySflxGLbAKEho6DU44kMO1MOt630rGJCnPDeFHYjDkJRBjujHM7Nj+OCI9ORhGaRBFBRERxFGfyJ3hhrookYcTIntvRtd+dyqK9Q+HxkmIdzjDI92EMZ+IbGwVxKQhNxGhoDY6gYHk0gj6kkiKWQWBRVCfYoJMYLSNgBcfiBxiEHeluIQrtZBCTUN8IR0+MEJBHQeN3OklCm0KJ8UZUJSKqAqKDe5WgoW7BQXJwqP4LiJNa+zNUJXawe8dC9hGUo7v6sLGe6Px8aTkQUODFiKbZLuzdRACmrqN0zUfRy9HdePbr34ulnoy8+H9398+j2t/Nmzttq5tQWp2vmqMs/TDOnsjxFM4cLzZs582bOZWrmxN9iGW/mxJzXNnPOHj7+/s690cdPRvcfje5/cfb4wRt2dSqTMVjlplQwxsFYpTrv6sy7Ou9UV+fHAJz/T7o6ueRzmeG0NvFl6nmvTC8LcJZfjM5R89tCzUvqlK9AKz/QK9DaNK9Aa3PUPEfNlw01X5JXoNXJYLl6UyoH42B5eQ6W52D53QLL1TlYflfAci75/E/AsvjAv/Uqdug1iUPC2X7Pk75i87a94wvrwtnPqtoKdh1LOHO2r10mbkknkH/URAPlbf2miQdd3fcBYNEfQcz8I6T4y7t7hns4o1V8S0yRfgsWVo/fCtp+EN6ghUl84pT9hLLPkeoNfZHD0Rt8vK8vapwAAkieHWXMjK9wyH9i5jltu2/P+NVYNb7n2UnAl4MBh3Kt2SKGlpgdcgpAU5oBkmPvF1A++HfJZ5mNBy7k1ESf/n4jsA+PwlkNW+kZxCI9tWz2SKW8aKm18ioh1bKmwb+GWamo6hL99YeYHDKITU5mXATFB5b+9FP/LxSjSbkzOgAA</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
@@ -424,12 +424,12 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>Value Added in Industry</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>Govt Revenue</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Value Added in Industry</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>LKR mn</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>RMB mn</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>LKR mn</t>
         </is>
       </c>
     </row>
@@ -570,10 +570,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4">
+        <v>310902601</v>
+      </c>
+      <c r="E8" s="4">
         <v>310901801</v>
-      </c>
-      <c r="E8" s="4">
-        <v>310902601</v>
       </c>
     </row>
     <row r="9">
@@ -590,12 +590,12 @@
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>SR4825076</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>SR4825071</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825076</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -632,10 +632,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5">
+        <v>31017</v>
+      </c>
+      <c r="E12" s="5">
         <v>18598</v>
-      </c>
-      <c r="E12" s="5">
-        <v>31017</v>
       </c>
     </row>
     <row r="13">
@@ -649,10 +649,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5">
+        <v>39052</v>
+      </c>
+      <c r="E13" s="5">
         <v>41244</v>
-      </c>
-      <c r="E13" s="5">
-        <v>39052</v>
       </c>
     </row>
     <row r="14">
@@ -705,10 +705,10 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2">
+        <v>201892.7</v>
+      </c>
+      <c r="E17" s="2">
         <v>4951998.2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>201892.7</v>
       </c>
     </row>
     <row r="18">
@@ -722,10 +722,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2">
+        <v>4866077434.233333</v>
+      </c>
+      <c r="E18" s="2">
         <v>8870140225312.178</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4866077434.233333</v>
       </c>
     </row>
     <row r="19">
@@ -739,10 +739,10 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2">
+        <v>69757.27513480821</v>
+      </c>
+      <c r="E19" s="2">
         <v>2978278.063799983</v>
-      </c>
-      <c r="E19" s="2">
-        <v>69757.27513480821</v>
       </c>
     </row>
     <row r="20">
@@ -752,14 +752,14 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.01561590289697475</v>
+        <v>0.0156159028969747</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2">
-        <v>0.5088159326089573</v>
+        <v>0.5012749293714148</v>
       </c>
       <c r="E20" s="2">
-        <v>0.5012749293714148</v>
+        <v>0.5088159326089575</v>
       </c>
     </row>
     <row r="21">
@@ -769,14 +769,14 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.075751539480831</v>
+        <v>-1.075751539480832</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2">
-        <v>-0.4977563153662574</v>
+        <v>-0.7795762174608876</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.7795762174608876</v>
+        <v>-0.497756315366257</v>
       </c>
     </row>
     <row r="22">
@@ -790,10 +790,10 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="2">
+        <v>0.3455165795237183</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.6014295529832752</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.3455165795237183</v>
       </c>
     </row>
     <row r="23">
@@ -807,10 +807,10 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2">
+        <v>112011</v>
+      </c>
+      <c r="E23" s="2">
         <v>866666</v>
-      </c>
-      <c r="E23" s="2">
-        <v>112011</v>
       </c>
     </row>
     <row r="24">
@@ -824,10 +824,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2">
+        <v>323560</v>
+      </c>
+      <c r="E24" s="2">
         <v>10374001</v>
-      </c>
-      <c r="E24" s="2">
-        <v>323560</v>
       </c>
     </row>
     <row r="25">
@@ -841,10 +841,10 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2">
+        <v>189310.5</v>
+      </c>
+      <c r="E25" s="2">
         <v>4504099</v>
-      </c>
-      <c r="E25" s="2">
-        <v>189310.5</v>
       </c>
     </row>
     <row r="26">
@@ -870,10 +870,10 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
+      <c r="D27" s="3">
         <v>112011</v>
       </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="8">
@@ -881,10 +881,10 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
+      <c r="D28" s="3">
         <v>129477</v>
       </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="8">
@@ -892,10 +892,10 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3">
+      <c r="D29" s="3">
         <v>143412</v>
       </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="8">
@@ -903,10 +903,10 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
+      <c r="D30" s="3">
         <v>167493</v>
       </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="8">
@@ -914,10 +914,10 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
+      <c r="D31" s="3">
         <v>179558</v>
       </c>
+      <c r="E31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="8">
@@ -927,10 +927,10 @@
         <v>767.73</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
         <v>199063</v>
       </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="8">
@@ -941,10 +941,10 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3">
+        <v>221016</v>
+      </c>
+      <c r="E33" s="3">
         <v>2171525</v>
-      </c>
-      <c r="E33" s="3">
-        <v>221016</v>
       </c>
     </row>
     <row r="34">
@@ -956,10 +956,10 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
+        <v>256572</v>
+      </c>
+      <c r="E34" s="3">
         <v>2639647</v>
-      </c>
-      <c r="E34" s="3">
-        <v>256572</v>
       </c>
     </row>
     <row r="35">
@@ -971,10 +971,10 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
+        <v>286765</v>
+      </c>
+      <c r="E35" s="3">
         <v>3164929</v>
-      </c>
-      <c r="E35" s="3">
-        <v>286765</v>
       </c>
     </row>
     <row r="36">
@@ -986,10 +986,10 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
+        <v>323560</v>
+      </c>
+      <c r="E36" s="3">
         <v>3876020</v>
-      </c>
-      <c r="E36" s="3">
-        <v>323560</v>
       </c>
     </row>
     <row r="37">
@@ -1000,10 +1000,10 @@
         <v>1482.71</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
         <v>5132178</v>
       </c>
-      <c r="E37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="8">
@@ -1013,10 +1013,10 @@
         <v>1598.61</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
         <v>6133035</v>
       </c>
-      <c r="E38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="8">
@@ -1026,10 +1026,10 @@
         <v>1639.54</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
         <v>6851830</v>
       </c>
-      <c r="E39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="8">
@@ -1039,10 +1039,10 @@
         <v>2026.83</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
         <v>8310151</v>
       </c>
-      <c r="E40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="8">
@@ -1052,10 +1052,10 @@
         <v>1667.1</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
         <v>10374001</v>
       </c>
-      <c r="E41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="8">
@@ -1063,79 +1063,13 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
         <v>866666</v>
       </c>
-      <c r="E42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>3</EndCol>
-          <Name/>
-          <DisplayName/>
-          <SeriesId/>
-          <Code/>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>4</EndCol>
-          <Name>Govt Revenue</Name>
-          <DisplayName>Govt Revenue</DisplayName>
-          <SeriesId>310901801</SeriesId>
-          <Code>SR4825071</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>5</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>5</EndCol>
-          <Name>Value Added in Industry</Name>
-          <DisplayName>Value Added in Industry</DisplayName>
-          <SeriesId>310902601</SeriesId>
-          <Code>SR4825076</Code>
-          <Order>3</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E575714F-7FEF-4895-807C-410227B741F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>